--- a/docs/BRP_Goals_Hows_Afnemers.xlsx
+++ b/docs/BRP_Goals_Hows_Afnemers.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comites1-my.sharepoint.com/personal/c_dingemanse_comites_nl/Documents/BRP bevragen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E3DD5CD0-B0D6-4F87-9766-2BB94EA75DB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60A4E9-016D-7E4C-8F08-8B77DFC1A673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20000" windowHeight="12733" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18700" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel" sheetId="1" r:id="rId1"/>
     <sheet name="Historie" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>BUS26</t>
   </si>
@@ -61,9 +55,6 @@
     <t>STORIES</t>
   </si>
   <si>
-    <t>invoeren contour</t>
-  </si>
-  <si>
     <t xml:space="preserve">koopsommen met bijbehorend koopjaar vinden </t>
   </si>
   <si>
@@ -100,45 +91,18 @@
     <t>bewoners vinden van een adres</t>
   </si>
   <si>
-    <t>BSN bewoners</t>
-  </si>
-  <si>
     <t>bewoners van een verblijfsobject, standplaats ligplaats, nummeraanduiding of BRP adres vinden</t>
   </si>
   <si>
     <t>Alle hoofdbewoners van een bepaald gebied vinden</t>
   </si>
   <si>
-    <t xml:space="preserve">alle adressen met hoofdbewoners </t>
-  </si>
-  <si>
-    <t xml:space="preserve">het aantal bewoners en van iedere bewoner de actuele leeftijd </t>
-  </si>
-  <si>
-    <t>aantal bewoners + leeftijd vinden</t>
-  </si>
-  <si>
     <t>Alle hoofdbewoners van verblijfsobjecten in een pand vinden</t>
   </si>
   <si>
-    <t>invoeren PandID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeks adressen met bijbehorende hoofdbewoners </t>
-  </si>
-  <si>
-    <t>datumVan + datumTotEnMet</t>
-  </si>
-  <si>
-    <t>bewoningsduur in maanden</t>
-  </si>
-  <si>
     <t>gemiddelde bewoningsduur bepalen</t>
   </si>
   <si>
-    <t>vraag de gemiddelde duur van een bewoning over een bepaalde periode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aantal bewoners per pand vinden </t>
   </si>
   <si>
@@ -169,12 +133,6 @@
     <t>BAGID nummeraanduiding, BAGID verblijfsobject, BAGID standplaats, BAGID ligplaats. Voor GBA adressen:  free query op postcode + huisnummer-letter-toevoeging, openbare ruimtenaam huisnummer-letter-toevoeging (fuzzy)</t>
   </si>
   <si>
-    <t>zoek bewoners van de woning, woonboot of woonwagen</t>
-  </si>
-  <si>
-    <t>zoek aantal bewoners + leeftijd</t>
-  </si>
-  <si>
     <t>,, + peildatum of + datumVan en datumTotEnMet</t>
   </si>
   <si>
@@ -182,9 +140,6 @@
   </si>
   <si>
     <t>aantal bewoners per adres + leeftijd + geslacht</t>
-  </si>
-  <si>
-    <t>zoek bewoners van de woning, woonboot of woonwagen binnen een bepaalde periode of op peildatum</t>
   </si>
   <si>
     <t>BUS21</t>
@@ -221,6 +176,92 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>haalcentraal/bewoningen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collectie van de bewoningen (= verblijfsobject-ID + nummeraanduiding-ID of GBA-adres-gegevens) met een lijst van URI's van de ingeschreven personen die nu op deze verblijfsplaats wonen. </t>
+  </si>
+  <si>
+    <t>zoek bewoners van de woning, woonboot of woonwagen door een adres op te zoeken, dit kan meerdere adressen en verblijfsobjecten opleveren</t>
+  </si>
+  <si>
+    <t>aantal bewoners + leeftijd + geslacht vinden</t>
+  </si>
+  <si>
+    <t>zoek bewoners van de woning, woonboot of woonwagen door een adres op te zoeken + peildatum of periode, dit kan meerdere adressen en verblijfsobjecten opleveren</t>
+  </si>
+  <si>
+    <t>zoek bewoners van de woning, fields=bewoners.leeftijd,bewoners.geslachtsaanduiding</t>
+  </si>
+  <si>
+    <t>output is leeftijd en geslacht van bewoners. Bewoners zijn gegevensgroep in bewoningen (met eigenschappen leeftijd en geslachtsaanduidin). Aantal kan door client worden bepaald</t>
+  </si>
+  <si>
+    <t>Collectie van de bewoningen (= verblijfsobject-ID + nummeraanduiding-ID of GBA-adres-gegevens) met een lijst van URI's van de ingeschreven personen die op peildatum of in periode op deze verblijfsplaats wonen/woonden + bij elke bewoning de bewoners met als eigenschap de periode (datum aanvang) naam en bsn</t>
+  </si>
+  <si>
+    <t>bewoners van een verblijfsobject, standplaats ligplaats, nummeraanduiding of BRP adres vinden op peildatum of binnen een periode</t>
+  </si>
+  <si>
+    <t>vraag de gemiddelde duur van de bewoning (in maanden) over een bepaalde periode</t>
+  </si>
+  <si>
+    <t>zoek bewoners van de woning, woonboot of woonwagen door een adresseerbaar object te raadplegen</t>
+  </si>
+  <si>
+    <t>haalcentraal/bewoningen/{nummeraanduidingidentificatie}</t>
+  </si>
+  <si>
+    <t>BAGID nummeraanduiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een lijst van URI's van de ingeschreven personen die nu op deze verblijfsplaats wonen. </t>
+  </si>
+  <si>
+    <t>bewoners van een verblijfsobject, standplaats ligplaats, nummeraanduiding  vinden</t>
+  </si>
+  <si>
+    <t>haalcentraal/bewoningen/{nummeraanduidingidentificatie}/verloop</t>
+  </si>
+  <si>
+    <t>BAGID nummeraanduiding + datumVan + datumTotEnMet</t>
+  </si>
+  <si>
+    <t>verloop van een bewoning met gemiddelde bewoningsduur in maanden</t>
+  </si>
+  <si>
+    <t>invoeren contour: in BAG, die levert reeks BAG nummeraanduidingen
+dus input voor deze resource is reeks BAGID nummeraanduidingen
+maximum aantal toegestane nummeraanduidingen</t>
+  </si>
+  <si>
+    <t>reeks van hoofdbewoners (subset van ingeschreven personen)
+hoofdbewoner is de oudste bewoner hoofdbewoner = naam (aanschrijfwijze aanhef gebruikInLopendeTekst) + adres +uri ingeschreven persoon</t>
+  </si>
+  <si>
+    <t>alle hoofdbewoners binnen een contour</t>
+  </si>
+  <si>
+    <t>invoeren PandID: in BAG, die levert reeks BAG nummeraanduidingen
+dus input voor deze resource is reeks BAGID nummeraanduidingen
+maximum aantal toegestane nummeraanduidingen</t>
+  </si>
+  <si>
+    <t>POST haalcentraal/bewoningen</t>
+  </si>
+  <si>
+    <t>POST haalcentraal/hoofdbewoners</t>
+  </si>
+  <si>
+    <t>Weten wie er in een pand wonen</t>
+  </si>
+  <si>
+    <t>zoek bewoners van een pand</t>
+  </si>
+  <si>
+    <t>POST haalcentraal/bewoningen/bewonersaantal</t>
   </si>
 </sst>
 </file>
@@ -289,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,14 +365,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,10 +398,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,28 +697,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4176BF7-E49A-487A-88AA-BEDDF16313F5}">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="47.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.87890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.29296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="44" width="6.703125" style="2" customWidth="1"/>
+    <col min="8" max="44" width="6.6640625" style="2" customWidth="1"/>
     <col min="45" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
@@ -696,71 +736,74 @@
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
-    <row r="3" spans="1:44" ht="43" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:44" ht="48" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:44" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>464</v>
@@ -775,196 +818,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:44" s="13" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="13">
+        <v>464</v>
+      </c>
+      <c r="I5" s="13">
+        <v>465</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H6" s="2">
+        <v>454</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:44" s="11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="11">
+        <v>224</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8">
+        <v>403</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>251</v>
+      </c>
+      <c r="I9" s="2">
+        <v>201</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="14" spans="1:44" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2">
+        <v>463</v>
+      </c>
+      <c r="I14" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="8" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="8" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2">
-        <v>454</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:44" s="11" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="11">
-        <v>224</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" s="8" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="8">
-        <v>403</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2">
-        <v>251</v>
-      </c>
-      <c r="I8" s="2">
-        <v>201</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="13" spans="1:44" ht="86.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2">
-        <v>463</v>
-      </c>
-      <c r="I13" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="8">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="8">
-        <v>266</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -984,32 +1094,32 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.29296875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="9">
         <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1018,21 +1128,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D335A3EEB563A24EB7D992071ECFB07C" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="99abf22a99d22fcb10846c9edc98e9cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff" xmlns:ns4="440e0acd-8877-4043-b1d6-a780d5cbc608" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="211b7509dba88216c68295d8fff763df" ns3:_="" ns4:_="">
     <xsd:import namespace="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
@@ -1229,32 +1330,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
+    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC78441B-984A-4A99-9D14-78D86413B7B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1271,4 +1373,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/BRP_Goals_Hows_Afnemers.xlsx
+++ b/docs/BRP_Goals_Hows_Afnemers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franksamwel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comites1-my.sharepoint.com/personal/c_dingemanse_comites_nl/Documents/BRP bevragen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60A4E9-016D-7E4C-8F08-8B77DFC1A673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{921DAEDC-C8E9-4650-BAB4-F113DE51AFF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18700" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20000" windowHeight="12733" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel" sheetId="1" r:id="rId1"/>
@@ -699,24 +699,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4176BF7-E49A-487A-88AA-BEDDF16313F5}">
   <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="47.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.64453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.8203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.17578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.64453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="44" width="6.6640625" style="2" customWidth="1"/>
+    <col min="8" max="44" width="6.64453125" style="2" customWidth="1"/>
     <col min="45" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="AQ1" s="15"/>
       <c r="AR1" s="15"/>
     </row>
-    <row r="3" spans="1:44" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="43" x14ac:dyDescent="0.5">
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -786,7 +786,7 @@
       <c r="G3" s="4"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:44" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" ht="128.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="13" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" s="13" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:44" s="11" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="11" customFormat="1" ht="143.35" x14ac:dyDescent="0.5">
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" s="8" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>58</v>
@@ -946,7 +946,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" ht="86" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
@@ -975,14 +975,14 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="14" spans="1:44" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" ht="94" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="8" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" s="8" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="9"/>
       <c r="B15" s="13" t="s">
         <v>66</v>
@@ -1032,7 +1032,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="8" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" s="8" customFormat="1" ht="86" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="8" t="s">
         <v>69</v>
@@ -1056,7 +1056,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="86" x14ac:dyDescent="0.5">
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1094,12 +1094,12 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1128,9 +1128,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,27 +1334,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
-    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1376,9 +1367,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>